--- a/2025-10-13/13_fixtures.xlsx
+++ b/2025-10-13/13_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cape Verde - Eswatini: 17:00</t>
+          <t>Cape Verde ✓ - Eswatini: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,8 +507,13 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -522,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iceland - France: 19:45</t>
+          <t>Iceland - France : 2:2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -542,10 +547,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cameroon - Angola: 17:00</t>
+          <t>Cameroon  - Angola: 0:0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -576,10 +581,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>North Macedonia - Kazakhstan: 19:45</t>
+          <t>North Macedonia  - Kazakhstan: 1:1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -610,10 +615,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -624,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sweden - Kosovo: 19:45</t>
+          <t>Sweden X - Kosovo: 0:1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -643,11 +648,16 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Strongest La Paz - Club Jorge Wilstermann: 1:1</t>
+          <t>The Strongest La Paz  - Club Jorge Wilstermann: 1:1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -692,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tunisia - Namibia: 14:00</t>
+          <t>Tunisia ✓ - Namibia: 3:0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -711,66 +721,37 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mon Oct 13</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Club Universidad de Chile - CD Palestino: 20:00</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Club Universidad de Chile</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="K9">
+        <f>COUNTIF(I:I,TRUE)</f>
+        <v/>
+      </c>
+      <c r="L9">
+        <f>(K9/K11)*100</f>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="K10">
-        <f>COUNTIF(I:I,TRUE)</f>
-        <v/>
-      </c>
-      <c r="L10">
-        <f>(K10/K12)*100</f>
+        <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="K11">
-        <f>COUNTIF(I:I,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="K12">
-        <f>K10+K11</f>
+        <f>K9+K10</f>
         <v/>
       </c>
     </row>
